--- a/Coding Academy.xlsx
+++ b/Coding Academy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CF7C1-581A-49BF-A825-D5BB0B6CA8FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348322B-3F92-4A08-9A9D-C2FAE907B8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,6 +13,7 @@
     <sheet name="3Front-end" sheetId="6" r:id="rId3"/>
     <sheet name="5APIs" sheetId="3" r:id="rId4"/>
     <sheet name="GIT&amp;GITHUB" sheetId="5" r:id="rId5"/>
+    <sheet name="renk" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1HTML&amp;CSS'!$A$1:$M$78</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1230">
   <si>
     <t>Property</t>
   </si>
@@ -6986,12 +6987,29 @@
   <si>
     <t>Moving Forward From Here</t>
   </si>
+  <si>
+    <t>ÖZGÜNün dünyası</t>
+  </si>
+  <si>
+    <t>1 VE  3</t>
+  </si>
+  <si>
+    <t>1 ve 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERCEK RENKLER
+(sayılar renklerin isimleri olsun)
+</t>
+  </si>
+  <si>
+    <t>CAGLAYANın dünyasındaki algı</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7030,8 +7048,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7044,8 +7078,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -7053,12 +7105,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7113,6 +7237,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9236,7 +9399,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G199" sqref="G199"/>
+      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15372,4 +15535,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774CF182-8D28-41CF-A3D9-47042FA9C9E2}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Coding Academy.xlsx
+++ b/Coding Academy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348322B-3F92-4A08-9A9D-C2FAE907B8DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE593E12-6646-4010-A2DD-35A342333689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1HTML&amp;CSS" sheetId="1" r:id="rId1"/>
@@ -7560,9 +7560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9397,7 +9397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
     </sheetView>
@@ -15542,7 +15542,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Coding Academy.xlsx
+++ b/Coding Academy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE593E12-6646-4010-A2DD-35A342333689}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A541E8A-D40B-4374-8CFD-B2CBAF8F64E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1HTML&amp;CSS" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="3Front-end" sheetId="6" r:id="rId3"/>
     <sheet name="5APIs" sheetId="3" r:id="rId4"/>
     <sheet name="GIT&amp;GITHUB" sheetId="5" r:id="rId5"/>
-    <sheet name="renk" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1HTML&amp;CSS'!$A$1:$M$78</definedName>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1225">
   <si>
     <t>Property</t>
   </si>
@@ -6987,29 +6986,12 @@
   <si>
     <t>Moving Forward From Here</t>
   </si>
-  <si>
-    <t>ÖZGÜNün dünyası</t>
-  </si>
-  <si>
-    <t>1 VE  3</t>
-  </si>
-  <si>
-    <t>1 ve 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERCEK RENKLER
-(sayılar renklerin isimleri olsun)
-</t>
-  </si>
-  <si>
-    <t>CAGLAYANın dünyasındaki algı</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7048,24 +7030,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7078,26 +7044,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -7105,84 +7053,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7237,45 +7113,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7560,7 +7397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
@@ -15066,7 +14903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EF373-F6D9-4EBF-886E-D6EEE3FD6B12}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
@@ -15535,81 +15372,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774CF182-8D28-41CF-A3D9-47042FA9C9E2}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23">
-        <v>2</v>
-      </c>
-      <c r="C3" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="67.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Coding Academy.xlsx
+++ b/Coding Academy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A541E8A-D40B-4374-8CFD-B2CBAF8F64E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B8ADA-9D9F-4813-94A0-39E09E30C0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1HTML&amp;CSS" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="1228">
   <si>
     <t>Property</t>
   </si>
@@ -6985,6 +6985,21 @@
   </si>
   <si>
     <t>Moving Forward From Here</t>
+  </si>
+  <si>
+    <t>p{
+    -webkit-hyphens: auto;
+    -moz-hyphens: auto;
+    hyphens: auto;
+}</t>
+  </si>
+  <si>
+    <t>hyphens</t>
+  </si>
+  <si>
+    <t>manuel,
+auto,
+none</t>
   </si>
 </sst>
 </file>
@@ -7395,11 +7410,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9216,6 +9231,20 @@
       </c>
       <c r="M78" s="1">
         <v>191006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>1225</v>
       </c>
     </row>
   </sheetData>
@@ -14903,7 +14932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5EF373-F6D9-4EBF-886E-D6EEE3FD6B12}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>

--- a/Coding Academy.xlsx
+++ b/Coding Academy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53B8ADA-9D9F-4813-94A0-39E09E30C0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDEB972-DB1B-440F-983E-7AB7E52A8B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'5APIs'!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'GIT&amp;GITHUB'!$A$1:$M$80</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -7414,7 +7414,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9234,6 +9234,9 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>78</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
@@ -9265,7 +9268,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H206" sqref="H206"/>
+      <selection pane="bottomLeft" activeCell="K207" sqref="K207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14934,7 +14937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Coding Academy.xlsx
+++ b/Coding Academy.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDEB972-DB1B-440F-983E-7AB7E52A8B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2E9A6-6DBC-4FB2-9328-139F9226DE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1HTML&amp;CSS" sheetId="1" r:id="rId1"/>
@@ -7412,7 +7412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
     </sheetView>
@@ -9266,9 +9266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N214"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K207" sqref="K207"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
